--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Cd80-Cd274.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Cd80-Cd274.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.65552268999146</v>
+        <v>26.499453</v>
       </c>
       <c r="H2">
-        <v>2.65552268999146</v>
+        <v>79.49835900000001</v>
       </c>
       <c r="I2">
-        <v>0.2954603690469605</v>
+        <v>0.7877954840311897</v>
       </c>
       <c r="J2">
-        <v>0.2954603690469605</v>
+        <v>0.7877954840311898</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.2560980565513</v>
+        <v>32.09065066666667</v>
       </c>
       <c r="N2">
-        <v>27.2560980565513</v>
+        <v>96.271952</v>
       </c>
       <c r="O2">
-        <v>0.9767944878571277</v>
+        <v>0.946743898370603</v>
       </c>
       <c r="P2">
-        <v>0.9767944878571277</v>
+        <v>0.9467438983706029</v>
       </c>
       <c r="Q2">
-        <v>72.37918682980411</v>
+        <v>850.3846890807521</v>
       </c>
       <c r="R2">
-        <v>72.37918682980411</v>
+        <v>7653.462201726768</v>
       </c>
       <c r="S2">
-        <v>0.2886040598653038</v>
+        <v>0.7458405676704447</v>
       </c>
       <c r="T2">
-        <v>0.2886040598653038</v>
+        <v>0.7458405676704447</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.65552268999146</v>
+        <v>26.499453</v>
       </c>
       <c r="H3">
-        <v>2.65552268999146</v>
+        <v>79.49835900000001</v>
       </c>
       <c r="I3">
-        <v>0.2954603690469605</v>
+        <v>0.7877954840311897</v>
       </c>
       <c r="J3">
-        <v>0.2954603690469605</v>
+        <v>0.7877954840311898</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.647517694132534</v>
+        <v>1.154570666666667</v>
       </c>
       <c r="N3">
-        <v>0.647517694132534</v>
+        <v>3.463712</v>
       </c>
       <c r="O3">
-        <v>0.02320551214287221</v>
+        <v>0.03406234249527876</v>
       </c>
       <c r="P3">
-        <v>0.02320551214287221</v>
+        <v>0.03406234249527877</v>
       </c>
       <c r="Q3">
-        <v>1.719497928939894</v>
+        <v>30.595491116512</v>
       </c>
       <c r="R3">
-        <v>1.719497928939894</v>
+        <v>275.3594200486081</v>
       </c>
       <c r="S3">
-        <v>0.006856309181656748</v>
+        <v>0.0268341595933043</v>
       </c>
       <c r="T3">
-        <v>0.006856309181656748</v>
+        <v>0.0268341595933043</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.4444858564964</v>
+        <v>26.499453</v>
       </c>
       <c r="H4">
-        <v>5.4444858564964</v>
+        <v>79.49835900000001</v>
       </c>
       <c r="I4">
-        <v>0.6057676729685774</v>
+        <v>0.7877954840311897</v>
       </c>
       <c r="J4">
-        <v>0.6057676729685774</v>
+        <v>0.7877954840311898</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.2560980565513</v>
+        <v>0.6505880000000001</v>
       </c>
       <c r="N4">
-        <v>27.2560980565513</v>
+        <v>1.951764</v>
       </c>
       <c r="O4">
-        <v>0.9767944878571277</v>
+        <v>0.01919375913411833</v>
       </c>
       <c r="P4">
-        <v>0.9767944878571277</v>
+        <v>0.01919375913411833</v>
       </c>
       <c r="Q4">
-        <v>148.3954403721726</v>
+        <v>17.240226128364</v>
       </c>
       <c r="R4">
-        <v>148.3954403721726</v>
+        <v>155.162035155276</v>
       </c>
       <c r="S4">
-        <v>0.5917105238777456</v>
+        <v>0.01512075676744082</v>
       </c>
       <c r="T4">
-        <v>0.5917105238777456</v>
+        <v>0.01512075676744082</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.4444858564964</v>
+        <v>5.993807666666666</v>
       </c>
       <c r="H5">
-        <v>5.4444858564964</v>
+        <v>17.981423</v>
       </c>
       <c r="I5">
-        <v>0.6057676729685774</v>
+        <v>0.1781883804149286</v>
       </c>
       <c r="J5">
-        <v>0.6057676729685774</v>
+        <v>0.1781883804149287</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.647517694132534</v>
+        <v>32.09065066666667</v>
       </c>
       <c r="N5">
-        <v>0.647517694132534</v>
+        <v>96.271952</v>
       </c>
       <c r="O5">
-        <v>0.02320551214287221</v>
+        <v>0.946743898370603</v>
       </c>
       <c r="P5">
-        <v>0.02320551214287221</v>
+        <v>0.9467438983706029</v>
       </c>
       <c r="Q5">
-        <v>3.525400927535744</v>
+        <v>192.3451879941884</v>
       </c>
       <c r="R5">
-        <v>3.525400927535744</v>
+        <v>1731.106691947696</v>
       </c>
       <c r="S5">
-        <v>0.01405714909083177</v>
+        <v>0.1686987619183735</v>
       </c>
       <c r="T5">
-        <v>0.01405714909083177</v>
+        <v>0.1686987619183735</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.88773725020608</v>
+        <v>5.993807666666666</v>
       </c>
       <c r="H6">
-        <v>0.88773725020608</v>
+        <v>17.981423</v>
       </c>
       <c r="I6">
-        <v>0.09877195798446213</v>
+        <v>0.1781883804149286</v>
       </c>
       <c r="J6">
-        <v>0.09877195798446213</v>
+        <v>0.1781883804149287</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>27.2560980565513</v>
+        <v>1.154570666666667</v>
       </c>
       <c r="N6">
-        <v>27.2560980565513</v>
+        <v>3.463712</v>
       </c>
       <c r="O6">
-        <v>0.9767944878571277</v>
+        <v>0.03406234249527876</v>
       </c>
       <c r="P6">
-        <v>0.9767944878571277</v>
+        <v>0.03406234249527877</v>
       </c>
       <c r="Q6">
-        <v>24.19625354007013</v>
+        <v>6.92027451357511</v>
       </c>
       <c r="R6">
-        <v>24.19625354007013</v>
+        <v>62.282470622176</v>
       </c>
       <c r="S6">
-        <v>0.09647990411407843</v>
+        <v>0.006069513642372321</v>
       </c>
       <c r="T6">
-        <v>0.09647990411407843</v>
+        <v>0.006069513642372324</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.88773725020608</v>
+        <v>5.993807666666666</v>
       </c>
       <c r="H7">
-        <v>0.88773725020608</v>
+        <v>17.981423</v>
       </c>
       <c r="I7">
-        <v>0.09877195798446213</v>
+        <v>0.1781883804149286</v>
       </c>
       <c r="J7">
-        <v>0.09877195798446213</v>
+        <v>0.1781883804149287</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.647517694132534</v>
+        <v>0.6505880000000001</v>
       </c>
       <c r="N7">
-        <v>0.647517694132534</v>
+        <v>1.951764</v>
       </c>
       <c r="O7">
-        <v>0.02320551214287221</v>
+        <v>0.01919375913411833</v>
       </c>
       <c r="P7">
-        <v>0.02320551214287221</v>
+        <v>0.01919375913411833</v>
       </c>
       <c r="Q7">
-        <v>0.5748255772489973</v>
+        <v>3.899499342241334</v>
       </c>
       <c r="R7">
-        <v>0.5748255772489973</v>
+        <v>35.095494080172</v>
       </c>
       <c r="S7">
-        <v>0.0022920538703837</v>
+        <v>0.003420104854182789</v>
       </c>
       <c r="T7">
-        <v>0.0022920538703837</v>
+        <v>0.003420104854182789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.144217</v>
+      </c>
+      <c r="H8">
+        <v>3.432650999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.03401613555388164</v>
+      </c>
+      <c r="J8">
+        <v>0.03401613555388164</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>32.09065066666667</v>
+      </c>
+      <c r="N8">
+        <v>96.271952</v>
+      </c>
+      <c r="O8">
+        <v>0.946743898370603</v>
+      </c>
+      <c r="P8">
+        <v>0.9467438983706029</v>
+      </c>
+      <c r="Q8">
+        <v>36.71866803386133</v>
+      </c>
+      <c r="R8">
+        <v>330.4680123047519</v>
+      </c>
+      <c r="S8">
+        <v>0.03220456878178478</v>
+      </c>
+      <c r="T8">
+        <v>0.03220456878178478</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.144217</v>
+      </c>
+      <c r="H9">
+        <v>3.432650999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.03401613555388164</v>
+      </c>
+      <c r="J9">
+        <v>0.03401613555388164</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>1.154570666666667</v>
+      </c>
+      <c r="N9">
+        <v>3.463712</v>
+      </c>
+      <c r="O9">
+        <v>0.03406234249527876</v>
+      </c>
+      <c r="P9">
+        <v>0.03406234249527877</v>
+      </c>
+      <c r="Q9">
+        <v>1.321079384501333</v>
+      </c>
+      <c r="R9">
+        <v>11.889714460512</v>
+      </c>
+      <c r="S9">
+        <v>0.001158669259602146</v>
+      </c>
+      <c r="T9">
+        <v>0.001158669259602146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.144217</v>
+      </c>
+      <c r="H10">
+        <v>3.432650999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.03401613555388164</v>
+      </c>
+      <c r="J10">
+        <v>0.03401613555388164</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.6505880000000001</v>
+      </c>
+      <c r="N10">
+        <v>1.951764</v>
+      </c>
+      <c r="O10">
+        <v>0.01919375913411833</v>
+      </c>
+      <c r="P10">
+        <v>0.01919375913411833</v>
+      </c>
+      <c r="Q10">
+        <v>0.744413849596</v>
+      </c>
+      <c r="R10">
+        <v>6.699724646363999</v>
+      </c>
+      <c r="S10">
+        <v>0.0006528975124947231</v>
+      </c>
+      <c r="T10">
+        <v>0.0006528975124947231</v>
       </c>
     </row>
   </sheetData>
